--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tg-Asgr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tg-Asgr1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6794593333333333</v>
+        <v>0.07266366666666667</v>
       </c>
       <c r="H2">
-        <v>2.038378</v>
+        <v>0.217991</v>
       </c>
       <c r="I2">
-        <v>0.4943552576500507</v>
+        <v>0.08800019376989421</v>
       </c>
       <c r="J2">
-        <v>0.4943552576500506</v>
+        <v>0.08800019376989422</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3844953333333334</v>
+        <v>0.5478816666666667</v>
       </c>
       <c r="N2">
-        <v>1.153486</v>
+        <v>1.643645</v>
       </c>
       <c r="O2">
-        <v>0.08259674426677835</v>
+        <v>0.1406795382009894</v>
       </c>
       <c r="P2">
-        <v>0.08259674426677834</v>
+        <v>0.1406795382009894</v>
       </c>
       <c r="Q2">
-        <v>0.2612489428564445</v>
+        <v>0.03981109079944445</v>
       </c>
       <c r="R2">
-        <v>2.351240485708</v>
+        <v>0.358299817195</v>
       </c>
       <c r="S2">
-        <v>0.04083213479305856</v>
+        <v>0.0123798266211463</v>
       </c>
       <c r="T2">
-        <v>0.04083213479305855</v>
+        <v>0.0123798266211463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6794593333333333</v>
+        <v>0.07266366666666667</v>
       </c>
       <c r="H3">
-        <v>2.038378</v>
+        <v>0.217991</v>
       </c>
       <c r="I3">
-        <v>0.4943552576500507</v>
+        <v>0.08800019376989421</v>
       </c>
       <c r="J3">
-        <v>0.4943552576500506</v>
+        <v>0.08800019376989422</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.477698</v>
       </c>
       <c r="O3">
-        <v>0.6070557021732195</v>
+        <v>0.7256059791788686</v>
       </c>
       <c r="P3">
-        <v>0.6070557021732194</v>
+        <v>0.7256059791788687</v>
       </c>
       <c r="Q3">
-        <v>1.920083677093778</v>
+        <v>0.2053402071908889</v>
       </c>
       <c r="R3">
-        <v>17.280753093844</v>
+        <v>1.848061864718</v>
       </c>
       <c r="S3">
-        <v>0.3001011780557744</v>
+        <v>0.06385346676833425</v>
       </c>
       <c r="T3">
-        <v>0.3001011780557742</v>
+        <v>0.06385346676833428</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6794593333333333</v>
+        <v>0.07266366666666667</v>
       </c>
       <c r="H4">
-        <v>2.038378</v>
+        <v>0.217991</v>
       </c>
       <c r="I4">
-        <v>0.4943552576500507</v>
+        <v>0.08800019376989421</v>
       </c>
       <c r="J4">
-        <v>0.4943552576500506</v>
+        <v>0.08800019376989422</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.8820446666666667</v>
+        <v>0.4691703333333333</v>
       </c>
       <c r="N4">
-        <v>2.646134</v>
+        <v>1.407511</v>
       </c>
       <c r="O4">
-        <v>0.1894795890835496</v>
+        <v>0.1204688345067291</v>
       </c>
       <c r="P4">
-        <v>0.1894795890835495</v>
+        <v>0.1204688345067291</v>
       </c>
       <c r="Q4">
-        <v>0.5993134811835555</v>
+        <v>0.03409163671122222</v>
       </c>
       <c r="R4">
-        <v>5.393821330651999</v>
+        <v>0.306824730401</v>
       </c>
       <c r="S4">
-        <v>0.09367023108082387</v>
+        <v>0.01060128077982548</v>
       </c>
       <c r="T4">
-        <v>0.09367023108082384</v>
+        <v>0.01060128077982548</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.07266366666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.217991</v>
+      </c>
+      <c r="I5">
+        <v>0.08800019376989421</v>
+      </c>
+      <c r="J5">
+        <v>0.08800019376989422</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.6794593333333333</v>
-      </c>
-      <c r="H5">
-        <v>2.038378</v>
-      </c>
-      <c r="I5">
-        <v>0.4943552576500507</v>
-      </c>
-      <c r="J5">
-        <v>0.4943552576500506</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>0.5626513333333333</v>
+        <v>0.05158566666666667</v>
       </c>
       <c r="N5">
-        <v>1.687954</v>
+        <v>0.154757</v>
       </c>
       <c r="O5">
-        <v>0.1208679644764527</v>
+        <v>0.01324564811341288</v>
       </c>
       <c r="P5">
-        <v>0.1208679644764527</v>
+        <v>0.01324564811341288</v>
       </c>
       <c r="Q5">
-        <v>0.3822986998457777</v>
+        <v>0.003748403687444445</v>
       </c>
       <c r="R5">
-        <v>3.440688298612</v>
+        <v>0.033735633187</v>
       </c>
       <c r="S5">
-        <v>0.05975171372039396</v>
+        <v>0.001165619600588167</v>
       </c>
       <c r="T5">
-        <v>0.05975171372039395</v>
+        <v>0.001165619600588168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>0.271517</v>
       </c>
       <c r="I6">
-        <v>0.06584934516138263</v>
+        <v>0.1096079590984048</v>
       </c>
       <c r="J6">
-        <v>0.06584934516138263</v>
+        <v>0.1096079590984048</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3844953333333334</v>
+        <v>0.5478816666666667</v>
       </c>
       <c r="N6">
-        <v>1.153486</v>
+        <v>1.643645</v>
       </c>
       <c r="O6">
-        <v>0.08259674426677835</v>
+        <v>0.1406795382009894</v>
       </c>
       <c r="P6">
-        <v>0.08259674426677834</v>
+        <v>0.1406795382009894</v>
       </c>
       <c r="Q6">
-        <v>0.03479900647355556</v>
+        <v>0.04958639549611112</v>
       </c>
       <c r="R6">
-        <v>0.313191058262</v>
+        <v>0.446277559465</v>
       </c>
       <c r="S6">
-        <v>0.00543894152242954</v>
+        <v>0.01541959706911653</v>
       </c>
       <c r="T6">
-        <v>0.005438941522429539</v>
+        <v>0.01541959706911653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.271517</v>
       </c>
       <c r="I7">
-        <v>0.06584934516138263</v>
+        <v>0.1096079590984048</v>
       </c>
       <c r="J7">
-        <v>0.06584934516138263</v>
+        <v>0.1096079590984048</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>8.477698</v>
       </c>
       <c r="O7">
-        <v>0.6070557021732195</v>
+        <v>0.7256059791788686</v>
       </c>
       <c r="P7">
-        <v>0.6070557021732194</v>
+        <v>0.7256059791788687</v>
       </c>
       <c r="Q7">
         <v>0.2557599030962223</v>
@@ -883,10 +883,10 @@
         <v>2.301839127866</v>
       </c>
       <c r="S7">
-        <v>0.03997422046458982</v>
+        <v>0.07953219048739542</v>
       </c>
       <c r="T7">
-        <v>0.03997422046458982</v>
+        <v>0.07953219048739543</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>0.271517</v>
       </c>
       <c r="I8">
-        <v>0.06584934516138263</v>
+        <v>0.1096079590984048</v>
       </c>
       <c r="J8">
-        <v>0.06584934516138263</v>
+        <v>0.1096079590984048</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.8820446666666667</v>
+        <v>0.4691703333333333</v>
       </c>
       <c r="N8">
-        <v>2.646134</v>
+        <v>1.407511</v>
       </c>
       <c r="O8">
-        <v>0.1894795890835496</v>
+        <v>0.1204688345067291</v>
       </c>
       <c r="P8">
-        <v>0.1894795890835495</v>
+        <v>0.1204688345067291</v>
       </c>
       <c r="Q8">
-        <v>0.07983004058644444</v>
+        <v>0.04246257379855555</v>
       </c>
       <c r="R8">
-        <v>0.718470365278</v>
+        <v>0.382163164187</v>
       </c>
       <c r="S8">
-        <v>0.0124771068625996</v>
+        <v>0.01320434308524607</v>
       </c>
       <c r="T8">
-        <v>0.0124771068625996</v>
+        <v>0.01320434308524607</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>0.271517</v>
       </c>
       <c r="I9">
-        <v>0.06584934516138263</v>
+        <v>0.1096079590984048</v>
       </c>
       <c r="J9">
-        <v>0.06584934516138263</v>
+        <v>0.1096079590984048</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.5626513333333333</v>
+        <v>0.05158566666666667</v>
       </c>
       <c r="N9">
-        <v>1.687954</v>
+        <v>0.154757</v>
       </c>
       <c r="O9">
-        <v>0.1208679644764527</v>
+        <v>0.01324564811341288</v>
       </c>
       <c r="P9">
-        <v>0.1208679644764527</v>
+        <v>0.01324564811341288</v>
       </c>
       <c r="Q9">
-        <v>0.05092313402422222</v>
+        <v>0.004668795152111111</v>
       </c>
       <c r="R9">
-        <v>0.458308206218</v>
+        <v>0.04201915636900001</v>
       </c>
       <c r="S9">
-        <v>0.007959076311763671</v>
+        <v>0.001451828456646822</v>
       </c>
       <c r="T9">
-        <v>0.007959076311763669</v>
+        <v>0.001451828456646823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5744113333333334</v>
+        <v>0.5710436666666667</v>
       </c>
       <c r="H10">
-        <v>1.723234</v>
+        <v>1.713131</v>
       </c>
       <c r="I10">
-        <v>0.4179253249698179</v>
+        <v>0.6915691930089437</v>
       </c>
       <c r="J10">
-        <v>0.4179253249698179</v>
+        <v>0.6915691930089438</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3844953333333334</v>
+        <v>0.5478816666666667</v>
       </c>
       <c r="N10">
-        <v>1.153486</v>
+        <v>1.643645</v>
       </c>
       <c r="O10">
-        <v>0.08259674426677835</v>
+        <v>0.1406795382009894</v>
       </c>
       <c r="P10">
-        <v>0.08259674426677834</v>
+        <v>0.1406795382009894</v>
       </c>
       <c r="Q10">
-        <v>0.2208584770804445</v>
+        <v>0.3128643558327778</v>
       </c>
       <c r="R10">
-        <v>1.987726293724</v>
+        <v>2.815779202495</v>
       </c>
       <c r="S10">
-        <v>0.03451927118914229</v>
+        <v>0.09728963470652911</v>
       </c>
       <c r="T10">
-        <v>0.03451927118914228</v>
+        <v>0.09728963470652913</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5744113333333334</v>
+        <v>0.5710436666666667</v>
       </c>
       <c r="H11">
-        <v>1.723234</v>
+        <v>1.713131</v>
       </c>
       <c r="I11">
-        <v>0.4179253249698179</v>
+        <v>0.6915691930089437</v>
       </c>
       <c r="J11">
-        <v>0.4179253249698179</v>
+        <v>0.6915691930089438</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.477698</v>
       </c>
       <c r="O11">
-        <v>0.6070557021732195</v>
+        <v>0.7256059791788686</v>
       </c>
       <c r="P11">
-        <v>0.6070557021732194</v>
+        <v>0.7256059791788687</v>
       </c>
       <c r="Q11">
-        <v>1.623228603925778</v>
+        <v>1.613711916937556</v>
       </c>
       <c r="R11">
-        <v>14.609057435332</v>
+        <v>14.523407252438</v>
       </c>
       <c r="S11">
-        <v>0.2537039516055238</v>
+        <v>0.5018067414631946</v>
       </c>
       <c r="T11">
-        <v>0.2537039516055237</v>
+        <v>0.5018067414631947</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5744113333333334</v>
+        <v>0.5710436666666667</v>
       </c>
       <c r="H12">
-        <v>1.723234</v>
+        <v>1.713131</v>
       </c>
       <c r="I12">
-        <v>0.4179253249698179</v>
+        <v>0.6915691930089437</v>
       </c>
       <c r="J12">
-        <v>0.4179253249698179</v>
+        <v>0.6915691930089438</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.8820446666666667</v>
+        <v>0.4691703333333333</v>
       </c>
       <c r="N12">
-        <v>2.646134</v>
+        <v>1.407511</v>
       </c>
       <c r="O12">
-        <v>0.1894795890835496</v>
+        <v>0.1204688345067291</v>
       </c>
       <c r="P12">
-        <v>0.1894795890835495</v>
+        <v>0.1204688345067291</v>
       </c>
       <c r="Q12">
-        <v>0.5066564530395556</v>
+        <v>0.2679167474378889</v>
       </c>
       <c r="R12">
-        <v>4.559908077356001</v>
+        <v>2.411250726941</v>
       </c>
       <c r="S12">
-        <v>0.07918831884289002</v>
+        <v>0.08331253466254665</v>
       </c>
       <c r="T12">
-        <v>0.07918831884289</v>
+        <v>0.08331253466254666</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5744113333333334</v>
+        <v>0.5710436666666667</v>
       </c>
       <c r="H13">
-        <v>1.723234</v>
+        <v>1.713131</v>
       </c>
       <c r="I13">
-        <v>0.4179253249698179</v>
+        <v>0.6915691930089437</v>
       </c>
       <c r="J13">
-        <v>0.4179253249698179</v>
+        <v>0.6915691930089438</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.5626513333333333</v>
+        <v>0.05158566666666667</v>
       </c>
       <c r="N13">
-        <v>1.687954</v>
+        <v>0.154757</v>
       </c>
       <c r="O13">
-        <v>0.1208679644764527</v>
+        <v>0.01324564811341288</v>
       </c>
       <c r="P13">
-        <v>0.1208679644764527</v>
+        <v>0.01324564811341288</v>
       </c>
       <c r="Q13">
-        <v>0.3231933025817778</v>
+        <v>0.02945766824077778</v>
       </c>
       <c r="R13">
-        <v>2.908739723236</v>
+        <v>0.265119014167</v>
       </c>
       <c r="S13">
-        <v>0.05051378333226192</v>
+        <v>0.009160282176673385</v>
       </c>
       <c r="T13">
-        <v>0.05051378333226191</v>
+        <v>0.009160282176673386</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.030059</v>
+        <v>0.09150866666666667</v>
       </c>
       <c r="H14">
-        <v>0.09017699999999999</v>
+        <v>0.274526</v>
       </c>
       <c r="I14">
-        <v>0.02187007221874874</v>
+        <v>0.1108226541227573</v>
       </c>
       <c r="J14">
-        <v>0.02187007221874874</v>
+        <v>0.1108226541227573</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.3844953333333334</v>
+        <v>0.5478816666666667</v>
       </c>
       <c r="N14">
-        <v>1.153486</v>
+        <v>1.643645</v>
       </c>
       <c r="O14">
-        <v>0.08259674426677835</v>
+        <v>0.1406795382009894</v>
       </c>
       <c r="P14">
-        <v>0.08259674426677834</v>
+        <v>0.1406795382009894</v>
       </c>
       <c r="Q14">
-        <v>0.01155754522466667</v>
+        <v>0.05013592080777778</v>
       </c>
       <c r="R14">
-        <v>0.104017907022</v>
+        <v>0.45122328727</v>
       </c>
       <c r="S14">
-        <v>0.001806396762147963</v>
+        <v>0.01559047980419747</v>
       </c>
       <c r="T14">
-        <v>0.001806396762147963</v>
+        <v>0.01559047980419747</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.030059</v>
+        <v>0.09150866666666667</v>
       </c>
       <c r="H15">
-        <v>0.09017699999999999</v>
+        <v>0.274526</v>
       </c>
       <c r="I15">
-        <v>0.02187007221874874</v>
+        <v>0.1108226541227573</v>
       </c>
       <c r="J15">
-        <v>0.02187007221874874</v>
+        <v>0.1108226541227573</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>8.477698</v>
       </c>
       <c r="O15">
-        <v>0.6070557021732195</v>
+        <v>0.7256059791788686</v>
       </c>
       <c r="P15">
-        <v>0.6070557021732194</v>
+        <v>0.7256059791788687</v>
       </c>
       <c r="Q15">
-        <v>0.08494370806066667</v>
+        <v>0.2585942801275556</v>
       </c>
       <c r="R15">
-        <v>0.7644933725459999</v>
+        <v>2.327348521148</v>
       </c>
       <c r="S15">
-        <v>0.01327635204733154</v>
+        <v>0.08041358045994437</v>
       </c>
       <c r="T15">
-        <v>0.01327635204733153</v>
+        <v>0.08041358045994439</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.030059</v>
+        <v>0.09150866666666667</v>
       </c>
       <c r="H16">
-        <v>0.09017699999999999</v>
+        <v>0.274526</v>
       </c>
       <c r="I16">
-        <v>0.02187007221874874</v>
+        <v>0.1108226541227573</v>
       </c>
       <c r="J16">
-        <v>0.02187007221874874</v>
+        <v>0.1108226541227573</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.8820446666666667</v>
+        <v>0.4691703333333333</v>
       </c>
       <c r="N16">
-        <v>2.646134</v>
+        <v>1.407511</v>
       </c>
       <c r="O16">
-        <v>0.1894795890835496</v>
+        <v>0.1204688345067291</v>
       </c>
       <c r="P16">
-        <v>0.1894795890835495</v>
+        <v>0.1204688345067291</v>
       </c>
       <c r="Q16">
-        <v>0.02651338063533333</v>
+        <v>0.04293315164288888</v>
       </c>
       <c r="R16">
-        <v>0.238620425718</v>
+        <v>0.386398364786</v>
       </c>
       <c r="S16">
-        <v>0.004143932297236064</v>
+        <v>0.01335067597911093</v>
       </c>
       <c r="T16">
-        <v>0.004143932297236063</v>
+        <v>0.01335067597911093</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.09150866666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.274526</v>
+      </c>
+      <c r="I17">
+        <v>0.1108226541227573</v>
+      </c>
+      <c r="J17">
+        <v>0.1108226541227573</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G17">
-        <v>0.030059</v>
-      </c>
-      <c r="H17">
-        <v>0.09017699999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.02187007221874874</v>
-      </c>
-      <c r="J17">
-        <v>0.02187007221874874</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
       <c r="M17">
-        <v>0.5626513333333333</v>
+        <v>0.05158566666666667</v>
       </c>
       <c r="N17">
-        <v>1.687954</v>
+        <v>0.154757</v>
       </c>
       <c r="O17">
-        <v>0.1208679644764527</v>
+        <v>0.01324564811341288</v>
       </c>
       <c r="P17">
-        <v>0.1208679644764527</v>
+        <v>0.01324564811341288</v>
       </c>
       <c r="Q17">
-        <v>0.01691273642866667</v>
+        <v>0.004720535575777778</v>
       </c>
       <c r="R17">
-        <v>0.152214627858</v>
+        <v>0.042484820182</v>
       </c>
       <c r="S17">
-        <v>0.002643391112033178</v>
+        <v>0.001467917879504508</v>
       </c>
       <c r="T17">
-        <v>0.002643391112033178</v>
+        <v>0.001467917879504508</v>
       </c>
     </row>
   </sheetData>
